--- a/admin/report/产品项目统计.xlsx
+++ b/admin/report/产品项目统计.xlsx
@@ -376,7 +376,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="产品项目统计"/>
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C160"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -396,687 +396,1263 @@
     </row>
     <row r="3">
       <c r="B3" t="str">
-        <v>SCW-C-YF-1606-01行邮违禁品智能查验系统</v>
+        <v>SCW-K-YF-1612-01国际快件中心业务系统</v>
       </c>
       <c r="C3">
-        <v>916.8</v>
+        <v>203.5</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="str">
-        <v xml:space="preserve">SCW-J-YF-1610-01快递安检信息管理平台 </v>
+        <v>SCW-JBJ-YF-1709-01边检自助信息采集系统</v>
       </c>
       <c r="C4">
-        <v>46.5</v>
+        <v>90.5</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="str">
-        <v>SCW-E-YF-1505-01空气质量与微小气候在线监测平台</v>
+        <v>SCW-C-YF-1606-01行邮违禁品智能查验系统</v>
       </c>
       <c r="C5">
-        <v>325.8</v>
+        <v>1226.8</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="str">
-        <v>X光图像采集工装</v>
+        <v>SCW-Z-YF-1704-02数据展示(BI)系统</v>
       </c>
       <c r="C6">
-        <v>2.5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="str">
-        <v>SCW-L-YF-1612-01立式核生化系统</v>
+        <v>SCW-Z-YF-1612-02安全监测大数据平台</v>
       </c>
       <c r="C7">
-        <v>20.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="str">
-        <v>SCW-Z-YF-1606-00公共模块库</v>
+        <v>SCW-E-YF-1505-01空气质量与微小气候在线监测平台</v>
       </c>
       <c r="C8">
-        <v>23.5</v>
+        <v>753.5</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="str">
-        <v>SCW-L-YF-1606-01核生化有害因子在线检测</v>
+        <v>X光图像采集工装</v>
       </c>
       <c r="C9">
-        <v>1317.2999999999993</v>
+        <v>767.8</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="str">
-        <v>验讫章柜子</v>
+        <v>SCW-JCTC-YF-1709-01智慧云车</v>
       </c>
       <c r="C10">
-        <v>128.5</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="str">
-        <v>SCW-B-YF-1606-01在线查验系统（关检公共版）</v>
+        <v xml:space="preserve">SCW-J-YF-1610-01快递安检信息管理平台 </v>
       </c>
       <c r="C11">
-        <v>296</v>
+        <v>751</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="str">
-        <v>SCW-B-YF-1412-01在线查验系统</v>
+        <v>SCW-HN-YF-1702-01口岸查验台</v>
       </c>
       <c r="C12">
-        <v>3239.1</v>
+        <v>742.7</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="str">
-        <v>SCW-Y-YF-1607-01日报周报系统</v>
+        <v>SCW-L-YF-1612-01立式核生化系统</v>
       </c>
       <c r="C13">
-        <v>300.9</v>
+        <v>318.5</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="str">
-        <v>SCW-Q-YF-1607-01卫检自助查验通道</v>
+        <v>SCW-Z-YF-1606-00公共模块库</v>
       </c>
       <c r="C14">
-        <v>718.4000000000001</v>
+        <v>410.5</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="str">
-        <v>SCW-Y-YF-1608-01公司官网</v>
+        <v>SCW-Z-YF-1710-01闸机机芯系统</v>
       </c>
       <c r="C15">
-        <v>104.5</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="str">
-        <v>SCW-Y-YF-1612-01验讫章柜</v>
+        <v>SCW-L-YF-1606-01核生化有害因子在线检测</v>
       </c>
       <c r="C16">
-        <v>26</v>
+        <v>1364.2999999999993</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="str">
-        <v>SCW-E-YF-1602-01空气质量与微小气候移动便携式监测仪</v>
+        <v>SCW-RT-YF-1709-01机场服务机器人</v>
       </c>
       <c r="C17">
-        <v>413.6</v>
+        <v>710</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="str">
-        <v>皮带机拆装(泰州)</v>
+        <v>SCW-H-YF-1702-01国检邮办截留物业务受理系统</v>
       </c>
       <c r="C18">
-        <v>81</v>
+        <v>665</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="str">
-        <v>SCW-D-YF-1512-01跨境电商公共服务平台</v>
+        <v>SCW-Z-YF-1710-02权限管理系统</v>
       </c>
       <c r="C19">
-        <v>4386.100000000001</v>
+        <v>383.5</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="str">
-        <v>SCW-Y-YF-1605-01会议室预约系统</v>
+        <v>SCW-Y-YF-1612-01验讫章柜</v>
       </c>
       <c r="C20">
-        <v>80</v>
+        <v>284.5</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="str">
-        <v>SCW-D-YF-1605-01跨境电商综合服务平台</v>
+        <v>SCW-Z-YF-1612-04实验室输送线</v>
       </c>
       <c r="C21">
-        <v>1390.5</v>
+        <v>958</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="str">
-        <v>SCW-Z-YF-1602-01统一授权认证平台</v>
+        <v>SCW-B-YF-1412-01在线查验系统</v>
       </c>
       <c r="C22">
-        <v>78.9</v>
+        <v>10133.6</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="str">
-        <v>SCW-N-YF-1606-01云洗消机器人</v>
+        <v>SCW-B-YF-1606-01在线查验系统（关检公共版）</v>
       </c>
       <c r="C23">
-        <v>550.5</v>
+        <v>351</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="str">
-        <v>SCW-A-YF-1608-01云图引擎</v>
+        <v>虹膜证照识别</v>
       </c>
       <c r="C24">
-        <v>36.599999999999994</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="str">
-        <v>SCW-H-YF-1606-01查验工作台</v>
+        <v>SCW-Z-YF-1612-01实验室质量控制系统</v>
       </c>
       <c r="C25">
-        <v>2018.7999999999997</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="str">
-        <v>项目投入时间</v>
+      <c r="B26" t="str">
+        <v>SCW-W-YF-1701-01WMS仓储管理系统</v>
+      </c>
+      <c r="C26">
+        <v>135</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="str">
-        <v>项目名称</v>
-      </c>
-      <c r="C27" t="str">
-        <v>工作量（小时）</v>
+        <v>郑州效能监测系统</v>
+      </c>
+      <c r="C27">
+        <v>141</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="str">
-        <v>SCW-K-YF-1612-01国际快件中心业务系统</v>
+        <v>SCW-Q-YF-1708-01 国检智能查验通道</v>
       </c>
       <c r="C28">
-        <v>99</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="str">
-        <v>SCW-B-XM-1611-02新疆阿拉山口保税区跨境电商在线查验系统</v>
+        <v>SCW-Q-YF-1607-01卫检自助查验通道</v>
       </c>
       <c r="C29">
-        <v>20</v>
+        <v>5047.9</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="str">
-        <v>SCW-B-XM-1611-01江苏淮安出口加工区跨境电商在线查验系统</v>
+        <v>SCW-Y-YF-1607-01日报周报系统</v>
       </c>
       <c r="C30">
-        <v>16.5</v>
+        <v>307.4</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="str">
-        <v>SCW-B-XM-1509-02绥芬河龙关通跨境电商在线查验系统</v>
+        <v>SCW-Y-YF-1608-01公司官网</v>
       </c>
       <c r="C31">
-        <v>8.5</v>
+        <v>387</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="str">
-        <v>SCW-B-XM-1610-01安徽芜湖综保区跨境电商在线查验系统</v>
+        <v>SCW-QBJ-YF-1707-01边检自助通道</v>
       </c>
       <c r="C32">
-        <v>51</v>
+        <v>457</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="str">
-        <v>SCW-H-XM-1606-02杭州机场检验检疫专用电子行李查验台</v>
+        <v>SCW-P-YF-1702-01风险拦截系统</v>
       </c>
       <c r="C33">
-        <v>288</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="str">
-        <v>SCW-B-XM-1609-02连云港国家级出口加工区跨境电商在线查验系统</v>
+        <v>SCW-Z-YF-1709-03行李处理系统</v>
       </c>
       <c r="C34">
-        <v>67.5</v>
+        <v>627</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="str">
-        <v>SCW-Q-XM-1608-01宁波栎社机场卫检自助查验通道</v>
+        <v>SCW-HW-YF-1707-01卫检查验工作站</v>
       </c>
       <c r="C35">
-        <v>350</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="str">
-        <v>SCW-E-XM-1509-01郑州T2机场空气质量与微小气候在线监测平台</v>
+        <v>SCW-Z-YF-1709-02海关大通关数据分发系统</v>
       </c>
       <c r="C36">
-        <v>136.4</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="str">
-        <v>SCW-B-XM-1606-03江苏盐城跨境电商在线查验系统</v>
+        <v>SCW-E-YF-1602-01空气质量与微小气候移动便携式监测仪</v>
       </c>
       <c r="C37">
-        <v>39</v>
+        <v>678.6</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="str">
-        <v>SCW-L-XM-1610-01 上海核生化快速智能检测系统</v>
+        <v>SCW-O-YF-1612-01安全生产信息化管理系统</v>
       </c>
       <c r="C38">
-        <v>9.5</v>
+        <v>198.5</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="str">
-        <v>海南海口物流监控平台</v>
+        <v>SCW-S-YF-1612-01会商指挥综合管理平台</v>
       </c>
       <c r="C39">
-        <v>30.8</v>
+        <v>6451</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="str">
-        <v>SCW-B-XM-1412-01青岛邮办快件在线查验系统</v>
+        <v>SCW-D-YF-1512-01跨境电商公共服务平台</v>
       </c>
       <c r="C40">
-        <v>283.4</v>
+        <v>4712.100000000001</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="str">
-        <v>SCW-B-XM-1612-01海南美兰机场跨境电商在线查验系统</v>
+        <v>SCW-H9-YF-1710-01智能值机柜台</v>
       </c>
       <c r="C41">
-        <v>10</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="str">
-        <v>SCW-B-XM-1505-01广州状元谷跨境电商在线查验系统</v>
+        <v>智慧空港边检勤务系统</v>
       </c>
       <c r="C42">
-        <v>68</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="str">
-        <v>SCW-H-XM-1509-01郑州T2检验检疫专用电子行李查验台</v>
+        <v>SCW-Q-YF-1702-01海关出入境旅客自助查验通道</v>
       </c>
       <c r="C43">
-        <v>551.4000000000002</v>
+        <v>4198</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="str">
-        <v>SCW-B-XM-1508-01延吉快件在线查验系统</v>
+        <v>SCW-J-YF-1702-01出入境航空器电讯检疫平台</v>
       </c>
       <c r="C44">
-        <v>350.5</v>
+        <v>987</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="str">
-        <v>SCW-H-XM-1611-01 青岛检验检疫母港动植检专用电子行李查验台</v>
+        <v>SCW-R-YF-1702-01检疫自助申报机</v>
       </c>
       <c r="C45">
-        <v>5</v>
+        <v>742</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="str">
-        <v>SCW-B-XM-1511-01福州马尾跨境电商在线查验系统</v>
+        <v>SCW-D-YF-1605-01跨境电商综合服务平台</v>
       </c>
       <c r="C46">
-        <v>294</v>
+        <v>1296.5</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="str">
-        <v>SCW-B-XM-1608-03江苏镇江丹阳跨境电商在线查验系统</v>
+        <v>SCW-Z-YF-1602-01统一授权认证平台</v>
       </c>
       <c r="C47">
-        <v>64</v>
+        <v>345.4</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="str">
-        <v>SCW-B-XM-1612-02重庆巴南保税物流中心在线查验系统</v>
+        <v>SCW-Y-YF-1605-01会议室预约系统</v>
       </c>
       <c r="C48">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="str">
-        <v>SCW-H-XM-1511-01武汉天河机场检验检疫专用电子行李查验台</v>
+        <v>SCW-N-YF-1606-01云洗消机器人</v>
       </c>
       <c r="C49">
-        <v>10</v>
+        <v>581.5</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="str">
-        <v>实验室线体设计、组装、调试</v>
+        <v>皮带机拆装(泰州)</v>
       </c>
       <c r="C50">
-        <v>20</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="str">
-        <v>SCW-B-XM-1512-03烟台邮办快件在线查验系统</v>
+        <v>SCW-HBJ-YF-1708-01 边检智能查验台</v>
       </c>
       <c r="C51">
-        <v>91</v>
+        <v>2354.5</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="str">
-        <v>SCW-A-XM-1506-01郑州检验检疫驻邮办云图引擎单机版</v>
+        <v>SCW-E-XM-1702-01生物采样及微小气候监测系统</v>
       </c>
       <c r="C52">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" t="str">
-        <v>SCW-F-XM-1602-01上海东航物流安检联网平台</v>
+        <v>SCW-A-YF-1608-01云图引擎</v>
       </c>
       <c r="C53">
-        <v>2673.1000000000004</v>
+        <v>2150.1</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="str">
-        <v>SCW-B-XM-1508-02绥芬河云仓跨境电商在线查验系统</v>
+        <v>SCW-H-YF-1606-01查验工作台</v>
       </c>
       <c r="C54">
-        <v>172</v>
+        <v>4470.5</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" t="str">
-        <v>SCW-B-XM-1611-05大连机场快件跨境电商在线查验系统</v>
+        <v>车载式微小气候监测系统</v>
       </c>
       <c r="C55">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="str">
-        <v>SCW-B-XM-1604-02苏州吴中跨境电商在线查验系统</v>
-      </c>
-      <c r="C56">
-        <v>536.5</v>
+      <c r="A56" t="str">
+        <v>项目投入时间</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" t="str">
-        <v>SCW-C-XM-1509-01郑州T2检验检疫违禁品智能查验系统</v>
-      </c>
-      <c r="C57">
-        <v>923.6000000000003</v>
+        <v>项目名称</v>
+      </c>
+      <c r="C57" t="str">
+        <v>工作量（小时）</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" t="str">
-        <v>SCW-B-XM-1509-01哈尔滨龙关通跨境电商在线查验系统</v>
+        <v>SCW-H-XM-1612-01湖南黄花机场专用电子行李查验台</v>
       </c>
       <c r="C58">
-        <v>134</v>
+        <v>8.2</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" t="str">
-        <v>SCW-H-XM-1512-02合肥机场检验检疫专用电子行李查验台</v>
+        <v>SCW-B-XM-1611-02新疆阿拉山口保税区跨境电商在线查验系统</v>
       </c>
       <c r="C59">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="str">
-        <v>SCW-G-XM-1611-01北京南站轨道交通智能物检系统</v>
+        <v>SCW-B-XM-1509-02绥芬河龙关通跨境电商在线查验系统</v>
       </c>
       <c r="C60">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" t="str">
-        <v>SCW-B-XM-1606-04安徽合肥跨境电商在线查验系统</v>
+        <v>SCW-B-XM-1611-01江苏淮安出口加工区跨境电商在线查验系统</v>
       </c>
       <c r="C61">
-        <v>109.5</v>
+        <v>121.6</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="str">
-        <v>SCW-B-XM-1608-02四川成都双流跨境电商在线查验系统</v>
+        <v>SCW-B-XM-1610-01安徽芜湖综保区跨境电商在线查验系统</v>
       </c>
       <c r="C62">
-        <v>52.5</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" t="str">
-        <v>SCW-B-XM-1611-04苏州邮办跨境电商在线查验系统</v>
+        <v>SCW-H-XM-1606-02杭州机场检验检疫专用电子行李查验台</v>
       </c>
       <c r="C63">
-        <v>40</v>
+        <v>494</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" t="str">
-        <v>SCW-L-XM-1610-02广州核生化快速智能检测系统</v>
+        <v>SCW-H-XM-1705-01宁波出入境检验检疫局专用电子行李查验台</v>
       </c>
       <c r="C64">
-        <v>357.5</v>
+        <v>1143.5</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" t="str">
-        <v>SCW-B-XM-1512-04广州南沙跨境电商在线查验系统</v>
+        <v>SCW-B-XM-1709-01辽宁营口港跨境电商在线查验系统</v>
       </c>
       <c r="C65">
-        <v>50</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66">
       <c r="B66" t="str">
-        <v>SCW-QE-XM-1612-01包头机场卫检自助查验通道</v>
+        <v>SCW-E-XM-1509-01郑州T2机场空气质量与微小气候在线监测平台</v>
       </c>
       <c r="C66">
-        <v>34.5</v>
+        <v>302.9</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" t="str">
-        <v>SCW-B-XM-1512-02威海邮办快件在线查验系统</v>
+        <v>SCW-B-XM-1709-02吉林省吉林市综保区在线查验系统</v>
       </c>
       <c r="C67">
-        <v>437.50000000000017</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" t="str">
-        <v>SCW-H-XM-1512-01青岛机场检验检疫专用电子行李查验台</v>
+        <v>SCW-H-XM-1509-01郑州T2检验检疫专用电子行李查验台</v>
       </c>
       <c r="C68">
-        <v>91.2</v>
+        <v>842.9000000000002</v>
       </c>
     </row>
     <row r="69">
       <c r="B69" t="str">
-        <v>SCW-H-XM-1607-01太原机场检验检疫专用电子行李查验台</v>
+        <v>SCW-B-XM-1709-03南京龙潭快件监管中心在线查验系统</v>
       </c>
       <c r="C69">
-        <v>28</v>
+        <v>271.5</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" t="str">
-        <v>SCW-H-XM-1412-01济南检验检疫驻邮办专用电子快件查验台</v>
+        <v>SCW-B-XM-1612-01海南美兰机场跨境电商在线查验系统</v>
       </c>
       <c r="C70">
-        <v>96.5</v>
+        <v>884</v>
       </c>
     </row>
     <row r="71">
       <c r="B71" t="str">
-        <v>SCW-B-XM-1412-03济南邮办快件在线查验系统</v>
+        <v>SCW-B-XM-1708-02兰州铁路跨境电商在线查验系统</v>
       </c>
       <c r="C71">
-        <v>176</v>
+        <v>200</v>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="str">
-        <v>SCW-B-XM-1609-01河南德众保税物流在线查验系统</v>
+        <v>SCW-B-XM-1609-02连云港国家级出口加工区跨境电商在线查验系统</v>
       </c>
       <c r="C72">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="73">
       <c r="B73" t="str">
-        <v>SCW-M-YF-1603-01吉林口岸核联网上报指挥</v>
+        <v>SCW-Q-XM-1608-01宁波栎社机场卫检自助查验通道</v>
       </c>
       <c r="C73">
-        <v>3155.499999999999</v>
+        <v>439.5</v>
       </c>
     </row>
     <row r="74">
       <c r="B74" t="str">
-        <v>SCW-B-XM-1608-01辽宁本溪跨境电商在线查验系统</v>
+        <v>SCW-B-XM-1606-03江苏盐城跨境电商在线查验系统</v>
       </c>
       <c r="C74">
-        <v>17.5</v>
+        <v>370</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" t="str">
-        <v>SCW-B-XM-1611-03内蒙古赤峰跨境电商在线查验系统</v>
+        <v>SCW-B-XM-1412-01青岛邮办快件在线查验系统</v>
       </c>
       <c r="C75">
-        <v>27</v>
+        <v>456.4</v>
       </c>
     </row>
     <row r="76">
       <c r="B76" t="str">
-        <v>SCW-B-XM-1603-01江苏连云港跨境电商在线查验系统</v>
+        <v>海南海口物流监控平台</v>
       </c>
       <c r="C76">
-        <v>301.2</v>
+        <v>1691.3</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" t="str">
-        <v>SCW-H-XM-1506-01郑州检验检疫驻邮办专用电子快件查验台</v>
+        <v>SCW-B-XM-1505-01广州状元谷跨境电商在线查验系统</v>
       </c>
       <c r="C77">
-        <v>82.7</v>
+        <v>210.5</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="str">
-        <v>SCW-B-XM-1602-01长沙金霞通跨境电商在线查验系统</v>
+        <v>SCW-B-XM-1508-01延吉快件在线查验系统</v>
       </c>
       <c r="C78">
-        <v>481</v>
+        <v>406.5</v>
       </c>
     </row>
     <row r="79">
       <c r="B79" t="str">
-        <v>SCW-B-XM-1512-01武汉东湖综保区跨境电商查验仓物流监管系统</v>
+        <v>SCW-B-XM-1708-01成都铁路保税物流中心跨境电商在线查验系统</v>
       </c>
       <c r="C79">
-        <v>400</v>
+        <v>67.2</v>
       </c>
     </row>
     <row r="80">
       <c r="B80" t="str">
-        <v>SCW-B-XM-1606-02太原武宿跨境电商在线查验系统</v>
+        <v>SCW-H-XM-1704-01山西运城机场检验检疫专用电子行李查验台</v>
       </c>
       <c r="C80">
-        <v>347</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" t="str">
-        <v>SCW-B-XM-1606-01天津华宇跨境电商在线查验系统</v>
+        <v>SCW-B-XM-1703-04广州新纪元跨境电商在线查验系统</v>
       </c>
       <c r="C81">
-        <v>593.5</v>
+        <v>170.8</v>
       </c>
     </row>
     <row r="82">
       <c r="B82" t="str">
-        <v>SCW-B-XM-1610-03大连港海运快件跨境电商在线查验系统</v>
+        <v>SCW-H-XM-1611-01 青岛检验检疫母港动植检专用电子行李查验台</v>
       </c>
       <c r="C82">
-        <v>185</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="83">
       <c r="B83" t="str">
-        <v>SCW-B-XM-1609-03大连中韩协会跨境电商在线查验系统</v>
+        <v>SCW-S-XM-1702-01重庆江北机场T3A联检单位查验设备项目</v>
       </c>
       <c r="C83">
-        <v>73</v>
+        <v>10136.5</v>
       </c>
     </row>
     <row r="84">
       <c r="B84" t="str">
-        <v>SCW-N-XM-1610-01广西凭祥保税区云洗消机器人系统</v>
+        <v>SCW-QE-XM-1612-01包头机场卫检自助查验通道</v>
       </c>
       <c r="C84">
-        <v>439</v>
+        <v>195.5</v>
       </c>
     </row>
     <row r="85">
       <c r="B85" t="str">
-        <v>SCW-B-XM-1604-01苏州高新区跨境电商在线查验系统</v>
+        <v>SCW-B-XM-1511-01福州马尾跨境电商在线查验系统</v>
       </c>
       <c r="C85">
-        <v>1047</v>
+        <v>307.5</v>
       </c>
     </row>
     <row r="86">
       <c r="B86" t="str">
-        <v>SCW-PRE-XM-1607-01顺丰安检项目</v>
+        <v>天津华宇2期跨境电商在线查验系统</v>
       </c>
       <c r="C86">
-        <v>148</v>
+        <v>501.7</v>
       </c>
     </row>
     <row r="87">
       <c r="B87" t="str">
-        <v>SCW-B-XM-1610-02南京金陵跨境电商在线查验系统</v>
+        <v>大同机场电子行李查验台和移动微小气候</v>
       </c>
       <c r="C87">
-        <v>727.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
       <c r="B88" t="str">
+        <v>SCW-A-XM-1506-01郑州检验检疫驻邮办云图引擎单机版</v>
+      </c>
+      <c r="C88">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" t="str">
+        <v>SCW-B-XM-1703-03河源市跨境电商B2C快件清关中心在线查验系统</v>
+      </c>
+      <c r="C89">
+        <v>1711.1999999999998</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" t="str">
+        <v>SCW-B-XM-1710-01泸州B型保税区跨境电商在线查验系统</v>
+      </c>
+      <c r="C90">
+        <v>113.7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" t="str">
+        <v>SCW-B-XM-1512-03烟台邮办快件在线查验系统</v>
+      </c>
+      <c r="C91">
+        <v>151.2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" t="str">
+        <v>SCW-B-XM-1508-02绥芬河云仓跨境电商在线查验系统</v>
+      </c>
+      <c r="C92">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" t="str">
+        <v>SCW-B-XM-1612-02重庆巴南保税物流中心在线查验系统</v>
+      </c>
+      <c r="C93">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" t="str">
+        <v>SCWS2017-0027智检内蒙古大数据应用平台</v>
+      </c>
+      <c r="C94">
+        <v>3597.2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" t="str">
+        <v>SCW-H-XM-1511-01武汉天河机场检验检疫专用电子行李查验台</v>
+      </c>
+      <c r="C95">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" t="str">
+        <v>SCW-S-XM-1709-01贵州铜仁凤凰国际机场检验检疫系统</v>
+      </c>
+      <c r="C96">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" t="str">
+        <v>SCW-B-XM-1706-02天竺综合保税区跨境电商在线查验系统</v>
+      </c>
+      <c r="C97">
+        <v>239.8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" t="str">
+        <v>SCW-F-XM-1602-01上海东航物流安检联网平台</v>
+      </c>
+      <c r="C98">
+        <v>4027.1000000000004</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" t="str">
+        <v>SCW-B-XM-1608-03江苏镇江丹阳跨境电商在线查验系统</v>
+      </c>
+      <c r="C99">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" t="str">
+        <v>SCW-B-XM-1611-05大连机场快件跨境电商在线查验系统</v>
+      </c>
+      <c r="C100">
+        <v>321.5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" t="str">
+        <v>SCW-A-XM-1612-01广东珠海邮办云图引擎系统</v>
+      </c>
+      <c r="C101">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" t="str">
+        <v>SCW-A-XM-1612-02海南博鳌机场云图引擎系统</v>
+      </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" t="str">
+        <v>SCW-B-XM-1703-01徐州跨境电商监管中心项目</v>
+      </c>
+      <c r="C103">
+        <v>561.5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" t="str">
+        <v>SCW-G-XM-1611-01北京南站轨道交通智能物检系统</v>
+      </c>
+      <c r="C104">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" t="str">
+        <v>SCW-H-XM-1611-02 广西检验检疫局专用电子行李查验台</v>
+      </c>
+      <c r="C105">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" t="str">
+        <v>SCW-B-XM-1710-02苏州太仓跨境电商在线查验系统</v>
+      </c>
+      <c r="C106">
+        <v>98.5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" t="str">
+        <v>SCW-B-XM-1509-01哈尔滨龙关通跨境电商在线查验系统</v>
+      </c>
+      <c r="C107">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" t="str">
+        <v>SCW-B-XM-1604-02苏州吴中跨境电商在线查验系统</v>
+      </c>
+      <c r="C108">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" t="str">
+        <v>SCW-C-XM-1509-01郑州T2检验检疫违禁品智能查验系统</v>
+      </c>
+      <c r="C109">
+        <v>1300.1000000000004</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" t="str">
+        <v>SCW-H-XM-1512-02合肥机场检验检疫专用电子行李查验台</v>
+      </c>
+      <c r="C110">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" t="str">
+        <v>SCW-B-XM-1710-03四川中欧国际海关在线查验系统</v>
+      </c>
+      <c r="C111">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" t="str">
+        <v>SCW-LHX-XM-1708-01广州白云机场化学毒剂检测系统</v>
+      </c>
+      <c r="C112">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" t="str">
+        <v>SCW-B-XM-1704-03洛阳跨境电商在线查验系统</v>
+      </c>
+      <c r="C113">
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" t="str">
+        <v>SCW-H-XM-1412-02青岛检验检疫驻邮办专用电子快件查验台</v>
+      </c>
+      <c r="C114">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" t="str">
+        <v>SCW-B-XM-1705-01海口综保区跨境电商在线查验系统</v>
+      </c>
+      <c r="C115">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" t="str">
+        <v>SCW-Z-YF-1703-01集中判图系统</v>
+      </c>
+      <c r="C116">
+        <v>335.5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" t="str">
+        <v>SCW-T-YF-1703-01自助登机设备</v>
+      </c>
+      <c r="C117">
+        <v>182.5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="B118" t="str">
+        <v>SCW-L-XM-1610-01 上海核生化快速智能检测系统</v>
+      </c>
+      <c r="C118">
+        <v>268.5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" t="str">
+        <v>产品预研和项目售前</v>
+      </c>
+      <c r="C119">
+        <v>2601.6000000000004</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="B120" t="str">
+        <v>SCW-B-XM-1706-01宁波机场快件中心在线查验系统</v>
+      </c>
+      <c r="C120">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="B121" t="str">
+        <v>SCW-B-XM-1704-01青岛邮办CT机在线查验系统</v>
+      </c>
+      <c r="C121">
+        <v>102.2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" t="str">
+        <v>SCW-B-XM-1608-02四川成都双流跨境电商在线查验系统</v>
+      </c>
+      <c r="C122">
+        <v>138.5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" t="str">
+        <v>SCW-B-XM-1611-04苏州邮办跨境电商在线查验系统</v>
+      </c>
+      <c r="C123">
+        <v>528.9000000000001</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" t="str">
+        <v>SCW-H-XM-1512-01青岛机场检验检疫专用电子行李查验台</v>
+      </c>
+      <c r="C124">
+        <v>98.7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" t="str">
+        <v>SCW-B-XM-1512-04广州南沙跨境电商在线查验系统</v>
+      </c>
+      <c r="C125">
+        <v>108.5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" t="str">
+        <v>SCW-H-XM-1412-01济南检验检疫驻邮办专用电子快件查验台</v>
+      </c>
+      <c r="C126">
+        <v>148.5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="B127" t="str">
+        <v>SCW-B-XM-1512-02威海邮办快件在线查验系统</v>
+      </c>
+      <c r="C127">
+        <v>589.0000000000002</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="B128" t="str">
+        <v>SCW-L-XM-1610-02广州核生化快速智能检测系统</v>
+      </c>
+      <c r="C128">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129" t="str">
+        <v>SCW-B-XM-1606-04安徽合肥跨境电商在线查验系统</v>
+      </c>
+      <c r="C129">
+        <v>138.5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="B130" t="str">
+        <v>SCW-H-XM-1607-01太原机场检验检疫专用电子行李查验台</v>
+      </c>
+      <c r="C130">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="B131" t="str">
+        <v>SCW-B-XM-1609-01河南德众保税物流在线查验系统</v>
+      </c>
+      <c r="C131">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="B132" t="str">
+        <v>SCW-B-XM-1704-02湖北邮办同屏比对在线查验系统</v>
+      </c>
+      <c r="C132">
+        <v>139.5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="B133" t="str">
+        <v>SCW-B-XM-1412-03济南邮办快件在线查验系统</v>
+      </c>
+      <c r="C133">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="B134" t="str">
+        <v>SCW-B-XM-1707-02许昌在线查验系统</v>
+      </c>
+      <c r="C134">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="B135" t="str">
+        <v>SCW-B-XM-1608-01辽宁本溪跨境电商在线查验系统</v>
+      </c>
+      <c r="C135">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="B136" t="str">
+        <v>SCW-M-YF-1603-01吉林口岸核联网上报指挥</v>
+      </c>
+      <c r="C136">
+        <v>3323.999999999999</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="B137" t="str">
+        <v>内蒙古质检项目</v>
+      </c>
+      <c r="C137">
+        <v>3841.5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="B138" t="str">
+        <v>SCW-B-XM-1611-03内蒙古赤峰跨境电商在线查验系统</v>
+      </c>
+      <c r="C138">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="B139" t="str">
+        <v>SCW-B-XM-1602-01长沙金霞通跨境电商在线查验系统（二期）</v>
+      </c>
+      <c r="C139">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="B140" t="str">
+        <v>SCW-B-XM-1603-01江苏连云港跨境电商在线查验系统</v>
+      </c>
+      <c r="C140">
+        <v>413.3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="B141" t="str">
+        <v>在线查验系统web调试工具</v>
+      </c>
+      <c r="C141">
+        <v>128.5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="B142" t="str">
+        <v>SCW-B-XM-1606-02太原武宿跨境电商在线查验系统</v>
+      </c>
+      <c r="C142">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="B143" t="str">
+        <v>SCW-H-XM-1506-01郑州检验检疫驻邮办专用电子快件查验台</v>
+      </c>
+      <c r="C143">
+        <v>85.2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="B144" t="str">
+        <v>SCW-B-XM-1707-01天津华宇2期跨境电商在线查验系统</v>
+      </c>
+      <c r="C144">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="B145" t="str">
+        <v>SCW-B-XM-1602-01长沙金霞通跨境电商在线查验系统</v>
+      </c>
+      <c r="C145">
+        <v>602.2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="B146" t="str">
+        <v>SCW-B-XM-1606-01天津华宇跨境电商在线查验系统</v>
+      </c>
+      <c r="C146">
+        <v>727.5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="B147" t="str">
+        <v>SCW-B-XM-1705-02西安咸阳机场快件中心在线查验系统</v>
+      </c>
+      <c r="C147">
+        <v>2754.7999999999997</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="B148" t="str">
+        <v>SCW-B-XM-1703-02曹妃甸跨境电商在线查验系统</v>
+      </c>
+      <c r="C148">
+        <v>131.6</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="B149" t="str">
+        <v>SCW-PRE-YF-1702-01X光机图像处理功能移植与解码</v>
+      </c>
+      <c r="C149">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="B150" t="str">
+        <v>SCW-B-XM-1610-03大连港海运快件跨境电商在线查验系统</v>
+      </c>
+      <c r="C150">
+        <v>226.7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="B151" t="str">
+        <v>SCW-B-XM-1701-01天津华宇双机双控在线查验系统</v>
+      </c>
+      <c r="C151">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="B152" t="str">
+        <v>SCW-H-XM-1701-01浙江出入境检验检疫局旅检查验台</v>
+      </c>
+      <c r="C152">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="B153" t="str">
+        <v>SCW-B-XM-1609-03大连中韩协会跨境电商在线查验系统</v>
+      </c>
+      <c r="C153">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="B154" t="str">
+        <v>SCW-B-XM-1612-03成都邮办跨境电商在线查验系统</v>
+      </c>
+      <c r="C154">
+        <v>541.3</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="B155" t="str">
+        <v>SCW-B-XM-1512-01武汉东湖综保区跨境电商查验仓物流监管系统</v>
+      </c>
+      <c r="C155">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="B156" t="str">
+        <v>SCW-N-XM-1610-01广西凭祥保税区云洗消机器人系统</v>
+      </c>
+      <c r="C156">
+        <v>763.5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="B157" t="str">
+        <v>SCW-PRE-XM-1607-01顺丰安检项目</v>
+      </c>
+      <c r="C157">
+        <v>150.5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="B158" t="str">
+        <v>SCW-B-XM-1604-01苏州高新区跨境电商在线查验系统</v>
+      </c>
+      <c r="C158">
+        <v>1073.5</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="B159" t="str">
+        <v>SCW-B-XM-1610-02南京金陵跨境电商在线查验系统</v>
+      </c>
+      <c r="C159">
+        <v>1165.5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="B160" t="str">
         <v>SCW-H-XM-1606-01包头机场检验检疫专用电子行李查验台</v>
       </c>
-      <c r="C88">
-        <v>30.2</v>
+      <c r="C160">
+        <v>39.2</v>
       </c>
     </row>
   </sheetData>
